--- a/Assets/Tables/relic.xlsx
+++ b/Assets/Tables/relic.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>uint key</t>
@@ -80,6 +83,9 @@
     <t>遗物效果描述</t>
   </si>
   <si>
+    <t>遗物名称</t>
+  </si>
+  <si>
     <t>r1</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
     <t>飞射物范围增加100%</t>
   </si>
   <si>
+    <t>zoom</t>
+  </si>
+  <si>
     <t>r2</t>
   </si>
   <si>
@@ -98,6 +107,9 @@
     <t>飞射物重复射击数+1</t>
   </si>
   <si>
+    <t>repeat</t>
+  </si>
+  <si>
     <t>r3</t>
   </si>
   <si>
@@ -107,34 +119,61 @@
     <t>飞射物散射数+1</t>
   </si>
   <si>
+    <t>salvo</t>
+  </si>
+  <si>
     <t>ZoomMeleeRelic</t>
   </si>
   <si>
     <t>近战武器放大20%</t>
   </si>
   <si>
+    <t>zoommelee</t>
+  </si>
+  <si>
     <t>AccelerateRelic</t>
   </si>
   <si>
     <t>加速</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>TitanEnemyRelic</t>
   </si>
   <si>
     <t>见鬼，它们是吃了什么?</t>
   </si>
   <si>
+    <t>titan</t>
+  </si>
+  <si>
     <t>DifficultModeRelic</t>
   </si>
   <si>
     <t>钟声响了，是谁敲的!</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>LuckyDogRelic</t>
   </si>
   <si>
     <t>如果还能不掉落就应该是人的问题了</t>
+  </si>
+  <si>
+    <t>lucky</t>
+  </si>
+  <si>
+    <t>CriticalRelic</t>
+  </si>
+  <si>
+    <t>爆</t>
+  </si>
+  <si>
+    <t>critical</t>
   </si>
 </sst>
 </file>
@@ -800,7 +839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -815,12 +854,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,9 +879,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,12 +1202,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1175,13 +1217,14 @@
     <col min="3" max="3" width="18" style="4" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
     <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1191,155 +1234,202 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
+    <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="27" spans="1:5">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="3" customFormat="1" ht="27" spans="1:6">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:6">
-      <c r="A4" s="11">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="D4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="11"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" ht="17" customHeight="1" spans="1:6">
-      <c r="A6" s="11">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
